--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_19-10.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_19-10.xlsx
@@ -140,6 +140,12 @@
     <t>DAPAVELDACTIN 10 MG 28 F.C. TABS.</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
     <t>DELAREX 5MG 30TAB</t>
   </si>
   <si>
@@ -152,156 +158,159 @@
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>DEXATROL EYE/EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>DOLO-D PLUS ORAL SUSP. 115 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>E-MOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>EMPACOZA TRIO XR 10/5/1000MG 30 TAB</t>
+  </si>
+  <si>
+    <t>EMPIR G CAPS</t>
+  </si>
+  <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>FLUMOX 1000MG 15 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>FUCICORT CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>GLEPTOMET 50/1000MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
+  </si>
+  <si>
+    <t>HAEMOKION 10MG/ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
+    <t>INIZIO CREAM</t>
+  </si>
+  <si>
+    <t>INIZIO WHITENING CREAM</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>IVYROSPAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
+  </si>
+  <si>
+    <t>MUCO 15MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>MUCOBRAVE 600 MG 10 SACHETS</t>
+  </si>
+  <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>NEUROTON 30 TAB</t>
+  </si>
+  <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
+    <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>OLAPEX 10 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>OPLEX N PLUS 10 SUPP.</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>OXYMET 0.05% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>PANTOPI 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>PENDULIN ANTI-DANDRUFF SHAMPOO</t>
+  </si>
+  <si>
+    <t>PSYCHOLANZ 12/50 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>SALMETOCORT 50+500 INH TAB</t>
+  </si>
+  <si>
     <t>0:5</t>
   </si>
   <si>
-    <t>DEXATROL EYE/EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>DOLO-D PLUS ORAL SUSP. 115 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>DOLPHIN 12.5MG 10 SUPP</t>
-  </si>
-  <si>
-    <t>E-MOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>EMPACOZA TRIO XR 10/5/1000MG 30 TAB</t>
-  </si>
-  <si>
-    <t>EMPIR G CAPS</t>
-  </si>
-  <si>
-    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>FAYCID HAIR OIL 60 ML</t>
-  </si>
-  <si>
-    <t>FLUMOX 1000MG 15 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>FUCICORT CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>GLEPTOMET 50/1000MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>GLOMETHASONE 8MG/2ML IM/IV 3 AMP</t>
-  </si>
-  <si>
-    <t>HAEMOKION 10MG/ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
-  </si>
-  <si>
-    <t>INIZIO CREAM</t>
-  </si>
-  <si>
-    <t>INIZIO WHITENING CREAM</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>IVYROSPAN SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>MACROFURAN 100 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
-  </si>
-  <si>
-    <t>MUCO 15MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>MUCOBRAVE 600 MG 10 SACHETS</t>
-  </si>
-  <si>
-    <t>MUCOSTA 100MG 20 TAB</t>
-  </si>
-  <si>
-    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
-  </si>
-  <si>
-    <t>NEUROTON 30 TAB</t>
-  </si>
-  <si>
-    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
-  </si>
-  <si>
-    <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
-  </si>
-  <si>
-    <t>3:5</t>
-  </si>
-  <si>
-    <t>OLAPEX 10 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>OPLEX N PLUS 10 SUPP.</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>OXYMET 0.05% ADULT NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>PANTOPI 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>PENDULIN ANTI-DANDRUFF SHAMPOO</t>
-  </si>
-  <si>
-    <t>PSYCHOLANZ 12/50 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>SALMETOCORT 50+500 INH TAB</t>
-  </si>
-  <si>
     <t>SANTORIN CAPS</t>
   </si>
   <si>
@@ -341,9 +350,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -392,7 +398,7 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>-5:0</t>
+    <t>10:0</t>
   </si>
   <si>
     <t>سيتي بيبي رقم 4</t>
@@ -1587,13 +1593,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1605,7 +1611,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1613,13 +1619,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1639,17 +1645,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1665,13 +1671,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1683,7 +1689,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1691,17 +1697,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>122.5</v>
+        <v>27</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1717,17 +1723,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>35</v>
+        <v>122.5</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1735,7 +1741,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1743,17 +1749,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1775,11 +1781,11 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1795,17 +1801,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1813,7 +1819,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1821,13 +1827,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1839,7 +1845,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1847,17 +1853,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1865,7 +1871,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1873,17 +1879,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1891,7 +1897,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1899,17 +1905,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1917,7 +1923,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1925,17 +1931,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1943,7 +1949,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1951,17 +1957,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1969,7 +1975,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1977,17 +1983,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>30.670000000000002</v>
+        <v>30</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1995,7 +2001,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2003,17 +2009,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>100</v>
+        <v>30.670000000000002</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2021,7 +2027,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -2029,17 +2035,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2047,7 +2053,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2055,17 +2061,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2073,7 +2079,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2081,17 +2087,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2099,7 +2105,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2107,13 +2113,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -2125,7 +2131,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2133,13 +2139,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>-290</v>
+        <v>39</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2151,7 +2157,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2159,13 +2165,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>200</v>
+        <v>-290</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2177,7 +2183,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2185,13 +2191,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2203,7 +2209,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2211,13 +2217,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2229,7 +2235,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2237,13 +2243,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2255,7 +2261,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2263,17 +2269,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>27.329999999999998</v>
+        <v>55</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2289,17 +2295,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>31</v>
+        <v>27.329999999999998</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2307,7 +2313,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2315,13 +2321,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2333,7 +2339,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2347,7 +2353,7 @@
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2359,7 +2365,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2367,17 +2373,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>-57</v>
+        <v>75</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2385,7 +2391,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2393,17 +2399,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>39</v>
+        <v>-57</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2411,7 +2417,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2419,17 +2425,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2437,7 +2443,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2445,17 +2451,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2463,7 +2469,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2471,17 +2477,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2497,13 +2503,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>76.439999999999998</v>
+        <v>16</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2515,7 +2521,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2523,17 +2529,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>16</v>
+        <v>76.439999999999998</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2549,17 +2555,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2567,7 +2573,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2575,17 +2581,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2593,7 +2599,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2607,11 +2613,11 @@
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2619,7 +2625,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2633,11 +2639,11 @@
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2645,7 +2651,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2653,13 +2659,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2671,7 +2677,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2685,11 +2691,11 @@
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2697,7 +2703,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2705,17 +2711,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2723,7 +2729,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2731,13 +2737,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>7.0499999999999998</v>
+        <v>67</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2749,7 +2755,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2757,13 +2763,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>47.670000000000002</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2775,7 +2781,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2783,17 +2789,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>89.099999999999994</v>
+        <v>47.670000000000002</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2801,7 +2807,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2809,17 +2815,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>-185</v>
+        <v>89.099999999999994</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2827,7 +2833,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2835,17 +2841,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>71</v>
+        <v>-185</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2853,7 +2859,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2861,17 +2867,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>45.5</v>
+        <v>71</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2879,7 +2885,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2887,17 +2893,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>60</v>
+        <v>45.5</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2905,7 +2911,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2919,7 +2925,7 @@
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -2931,7 +2937,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2939,13 +2945,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
@@ -2957,7 +2963,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2971,11 +2977,11 @@
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2983,7 +2989,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2991,17 +2997,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3009,7 +3015,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3017,13 +3023,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -3035,7 +3041,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3043,17 +3049,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3061,7 +3067,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3069,13 +3075,13 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
@@ -3087,7 +3093,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3095,17 +3101,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3127,11 +3133,11 @@
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>115</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3139,7 +3145,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3147,17 +3153,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>224</v>
+        <v>12.5</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>55</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3165,7 +3171,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3173,17 +3179,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3191,7 +3197,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3199,13 +3205,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3217,7 +3223,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3225,7 +3231,7 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
@@ -3243,7 +3249,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3251,13 +3257,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
@@ -3277,13 +3283,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
@@ -3295,7 +3301,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3303,17 +3309,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>125</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3321,7 +3327,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3329,17 +3335,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>110</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3355,17 +3361,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>9</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3373,7 +3379,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3381,13 +3387,13 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>6</v>
+        <v>190</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
@@ -3407,13 +3413,13 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
@@ -3425,7 +3431,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3433,13 +3439,13 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
@@ -3451,7 +3457,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3459,13 +3465,13 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>68.599999999999994</v>
+        <v>85</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
@@ -3477,7 +3483,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3485,13 +3491,13 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>15</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
@@ -3503,7 +3509,7 @@
         <v>97</v>
       </c>
       <c t="s" r="B100" s="7">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3511,13 +3517,13 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
@@ -3537,51 +3543,77 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="6">
+        <v>99</v>
+      </c>
+      <c t="s" r="B102" s="7">
+        <v>139</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c t="s" r="H102" s="8">
+        <v>138</v>
+      </c>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="9">
+        <v>70</v>
+      </c>
+      <c r="M102" s="9"/>
+      <c t="s" r="N102" s="7">
         <v>25</v>
       </c>
     </row>
-    <row r="102" ht="26.25" customHeight="1">
-      <c r="K102" s="10">
-        <v>4618.3599999999997</v>
-      </c>
-      <c r="L102" s="10"/>
-      <c r="M102" s="10"/>
-      <c r="N102" s="10"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="11">
-        <v>138</v>
-      </c>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c t="s" r="F103" s="12">
-        <v>139</v>
-      </c>
-      <c r="G103" s="12"/>
-      <c r="H103" s="13"/>
-      <c t="s" r="I103" s="14">
+    <row r="103" ht="25.5" customHeight="1">
+      <c r="K103" s="10">
+        <v>4645.3599999999997</v>
+      </c>
+      <c r="L103" s="10"/>
+      <c r="M103" s="10"/>
+      <c r="N103" s="10"/>
+    </row>
+    <row r="104" ht="17.25" customHeight="1">
+      <c t="s" r="A104" s="11">
         <v>140</v>
       </c>
-      <c r="J103" s="14"/>
-      <c r="K103" s="14"/>
-      <c r="L103" s="14"/>
-      <c r="M103" s="14"/>
-      <c r="N103" s="14"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c t="s" r="F104" s="12">
+        <v>141</v>
+      </c>
+      <c r="G104" s="12"/>
+      <c r="H104" s="13"/>
+      <c t="s" r="I104" s="14">
+        <v>142</v>
+      </c>
+      <c r="J104" s="14"/>
+      <c r="K104" s="14"/>
+      <c r="L104" s="14"/>
+      <c r="M104" s="14"/>
+      <c r="N104" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="305">
+  <mergeCells count="308">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3883,10 +3915,13 @@
     <mergeCell ref="B101:G101"/>
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
-    <mergeCell ref="K102:N102"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="I103:N103"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="K103:N103"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="I104:N104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
